--- a/Display.xlsx
+++ b/Display.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ESP Playground\AirQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B33D53A-CD3C-42D6-8330-2C3D712F1BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E72D9-68F3-460E-8060-8FD212E6EDC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11422" xr2:uid="{640D9A9B-E986-4773-BCDE-A1F2849D844A}"/>
+    <workbookView xWindow="4590" yWindow="2512" windowWidth="21600" windowHeight="11423" activeTab="1" xr2:uid="{640D9A9B-E986-4773-BCDE-A1F2849D844A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Engineering Setup" sheetId="1" r:id="rId1"/>
+    <sheet name="User Setup" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>BME680</t>
   </si>
@@ -183,6 +184,132 @@
   </si>
   <si>
     <t>N/P/1</t>
+  </si>
+  <si>
+    <t>rH</t>
+  </si>
+  <si>
+    <t>aH</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>dPressure</t>
+  </si>
+  <si>
+    <t>VOC</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>mb</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>P04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N </t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>ppb</t>
+  </si>
+  <si>
+    <t>ugr</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>omega_c</t>
+  </si>
+  <si>
+    <t>rad/s</t>
+  </si>
+  <si>
+    <t>omega_c_nor</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>24HRS</t>
+  </si>
+  <si>
+    <t>Average Pressure Filter</t>
   </si>
 </sst>
 </file>
@@ -206,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +388,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -414,7 +547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -446,6 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -768,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736BCF0D-BF93-4C55-A238-E69E97169F90}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11:Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1626,4 +1760,829 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5CB0FF-4212-4CC9-93BA-54A050B1D9CE}">
+  <dimension ref="A2:V36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C12">
+        <v>999</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12">
+        <v>23.3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C13">
+        <v>999</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C14">
+        <v>999</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14">
+        <v>1203</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C15">
+        <v>999</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15">
+        <v>1234</v>
+      </c>
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>9</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <v>7</v>
+      </c>
+      <c r="U17">
+        <v>8</v>
+      </c>
+      <c r="V17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="31"/>
+      <c r="N18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="31"/>
+      <c r="P18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T18" s="31"/>
+      <c r="U18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V18" s="31"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="31"/>
+      <c r="N20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O20" s="31"/>
+      <c r="P20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T20" s="31"/>
+      <c r="U20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V20" s="31"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" s="31"/>
+      <c r="N21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="31"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S21" s="3">
+        <v>2</v>
+      </c>
+      <c r="T21" s="31"/>
+      <c r="U21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V21" s="31"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>8</v>
+      </c>
+      <c r="L23">
+        <v>9</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="S23">
+        <v>6</v>
+      </c>
+      <c r="T23">
+        <v>7</v>
+      </c>
+      <c r="U23">
+        <v>8</v>
+      </c>
+      <c r="V23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3">
+        <v>9</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="3">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="31"/>
+      <c r="O24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S24" s="3">
+        <v>3</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3">
+        <v>9</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
+        <v>6</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="3">
+        <v>6</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3">
+        <v>9</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2</v>
+      </c>
+      <c r="K26" s="3">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O26" s="31"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3">
+        <v>2</v>
+      </c>
+      <c r="R26" s="3">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3">
+        <v>9</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3">
+        <v>9</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O27" s="31"/>
+      <c r="P27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>2</v>
+      </c>
+      <c r="R27" s="3">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3">
+        <v>4</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32">
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33">
+        <f>2*3.141/24/3600</f>
+        <v>7.270833333333333E-5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33">
+        <f>2*3.141/24/3600</f>
+        <v>7.270833333333333E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34">
+        <f>C33/C32</f>
+        <v>4.3625000000000001E-3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34">
+        <f>E33/E32</f>
+        <v>3.6354166666666664E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35">
+        <f>1-COS(C34)</f>
+        <v>9.5156880335345306E-6</v>
+      </c>
+      <c r="E35">
+        <f>1-COS(E34)</f>
+        <v>6.6081271010709486E-8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36">
+        <f>-C35+SQRT(C35*C35+2*C35)</f>
+        <v>4.3529912306300694E-3</v>
+      </c>
+      <c r="E36">
+        <f>-E35+SQRT(E35*E35+2*E35)</f>
+        <v>3.6347558950161661E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Display.xlsx
+++ b/Display.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ESP Playground\AirQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E72D9-68F3-460E-8060-8FD212E6EDC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752189A7-A1F3-4546-859C-CA1A58AA88E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="2512" windowWidth="21600" windowHeight="11423" activeTab="1" xr2:uid="{640D9A9B-E986-4773-BCDE-A1F2849D844A}"/>
+    <workbookView xWindow="3218" yWindow="3218" windowWidth="21600" windowHeight="11422" activeTab="2" xr2:uid="{640D9A9B-E986-4773-BCDE-A1F2849D844A}"/>
   </bookViews>
   <sheets>
     <sheet name="Engineering Setup" sheetId="1" r:id="rId1"/>
-    <sheet name="User Setup" sheetId="2" r:id="rId2"/>
+    <sheet name="Two Page Setup" sheetId="2" r:id="rId2"/>
+    <sheet name="Single Page Setup" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="107">
   <si>
     <t>BME680</t>
   </si>
@@ -310,6 +311,51 @@
   </si>
   <si>
     <t>Average Pressure Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Particulate Matter</t>
+  </si>
+  <si>
+    <t>absolute Humidity</t>
+  </si>
+  <si>
+    <t>deltaPressure</t>
+  </si>
+  <si>
+    <t>totalVolotileOrganicCompounds</t>
   </si>
 </sst>
 </file>
@@ -547,7 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -580,6 +626,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1766,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5CB0FF-4212-4CC9-93BA-54A050B1D9CE}">
   <dimension ref="A2:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2576,13 +2625,525 @@
         <f>-C35+SQRT(C35*C35+2*C35)</f>
         <v>4.3529912306300694E-3</v>
       </c>
-      <c r="E36">
-        <f>-E35+SQRT(E35*E35+2*E35)</f>
-        <v>3.6347558950161661E-4</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F251BC20-0382-41B6-B660-C0840633F309}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="26.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="1.73046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="2.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>2</v>
+      </c>
+      <c r="O1">
+        <v>3</v>
+      </c>
+      <c r="P1">
+        <v>4</v>
+      </c>
+      <c r="Q1">
+        <v>5</v>
+      </c>
+      <c r="R1">
+        <v>6</v>
+      </c>
+      <c r="S1">
+        <v>7</v>
+      </c>
+      <c r="T1">
+        <v>8</v>
+      </c>
+      <c r="U1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="3">
+        <v>3</v>
+      </c>
+      <c r="R2" s="3">
+        <v>8</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="3">
+        <v>3</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>2</v>
+      </c>
+      <c r="R3" s="3">
+        <v>5</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="3">
+        <v>3</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="31"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>5</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="31"/>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>3</v>
+      </c>
+      <c r="R5" s="3">
+        <v>4</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B7" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B8" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B9" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B10" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B11" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B13" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B14" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="34">
+        <v>2</v>
+      </c>
+      <c r="E18" s="34"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Display.xlsx
+++ b/Display.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ESP Playground\AirQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752189A7-A1F3-4546-859C-CA1A58AA88E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0892D882-E724-48FB-9C14-E1409F957B4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3218" yWindow="3218" windowWidth="21600" windowHeight="11422" activeTab="2" xr2:uid="{640D9A9B-E986-4773-BCDE-A1F2849D844A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{640D9A9B-E986-4773-BCDE-A1F2849D844A}"/>
   </bookViews>
   <sheets>
     <sheet name="Engineering Setup" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="107">
   <si>
     <t>BME680</t>
   </si>
@@ -2637,7 +2637,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2855,17 +2855,17 @@
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
-      <c r="J4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>70</v>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N4" s="31"/>
       <c r="O4" s="32"/>
@@ -2916,17 +2916,17 @@
       <c r="I5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>70</v>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>3</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="N5" s="31"/>
       <c r="O5" s="3">

--- a/Display.xlsx
+++ b/Display.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ESP Playground\AirQuality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uutzi\Documents\GitHub\ESP Playground\AirQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0892D882-E724-48FB-9C14-E1409F957B4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1E747A-1AD8-4700-9CBE-697E631D3C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{640D9A9B-E986-4773-BCDE-A1F2849D844A}"/>
+    <workbookView xWindow="3480" yWindow="2520" windowWidth="19200" windowHeight="10060" activeTab="3" xr2:uid="{640D9A9B-E986-4773-BCDE-A1F2849D844A}"/>
   </bookViews>
   <sheets>
     <sheet name="Engineering Setup" sheetId="1" r:id="rId1"/>
     <sheet name="Two Page Setup" sheetId="2" r:id="rId2"/>
     <sheet name="Single Page Setup" sheetId="3" r:id="rId3"/>
+    <sheet name="Simplified" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="108">
   <si>
     <t>BME680</t>
   </si>
@@ -356,6 +357,9 @@
   </si>
   <si>
     <t>totalVolotileOrganicCompounds</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
 </sst>
 </file>
@@ -951,17 +955,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736BCF0D-BF93-4C55-A238-E69E97169F90}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D9" sqref="D9:X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="E1">
         <v>1</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
@@ -1110,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
@@ -1169,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>39</v>
       </c>
@@ -1270,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>40</v>
       </c>
@@ -1278,7 +1282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I8" t="s">
         <v>30</v>
       </c>
@@ -1297,7 +1301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>24</v>
       </c>
@@ -1360,7 +1364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>21</v>
       </c>
@@ -1425,7 +1429,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>25</v>
       </c>
@@ -1476,7 +1480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>22</v>
       </c>
@@ -1541,7 +1545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="I13" t="s">
         <v>31</v>
       </c>
@@ -1552,7 +1556,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1602,7 +1606,7 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1638,7 +1642,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1674,7 +1678,7 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1710,7 +1714,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1748,7 +1752,7 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1768,7 +1772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1782,7 +1786,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1790,12 +1794,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -1819,12 +1823,12 @@
       <selection activeCell="B23" sqref="B23:V27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>24</v>
       </c>
@@ -1844,7 +1848,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -1858,7 +1862,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -1875,7 +1879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -1895,7 +1899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>58</v>
       </c>
@@ -1912,7 +1916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>59</v>
       </c>
@@ -1923,7 +1927,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>60</v>
       </c>
@@ -1937,7 +1941,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>57</v>
       </c>
@@ -1957,7 +1961,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>999</v>
       </c>
@@ -1977,7 +1981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>999</v>
       </c>
@@ -1991,7 +1995,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>999</v>
       </c>
@@ -2011,7 +2015,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C15">
         <v>999</v>
       </c>
@@ -2031,7 +2035,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C17">
         <v>0</v>
       </c>
@@ -2093,7 +2097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>0</v>
       </c>
@@ -2140,7 +2144,7 @@
       </c>
       <c r="V18" s="31"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>1</v>
       </c>
@@ -2177,7 +2181,7 @@
       <c r="U19" s="31"/>
       <c r="V19" s="31"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>2</v>
       </c>
@@ -2222,7 +2226,7 @@
       </c>
       <c r="V20" s="31"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>3</v>
       </c>
@@ -2269,7 +2273,7 @@
       </c>
       <c r="V21" s="31"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>0</v>
       </c>
@@ -2331,7 +2335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>0</v>
       </c>
@@ -2386,7 +2390,7 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>1</v>
       </c>
@@ -2431,7 +2435,7 @@
       <c r="U25" s="31"/>
       <c r="V25" s="31"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>2</v>
       </c>
@@ -2492,7 +2496,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>3</v>
       </c>
@@ -2549,7 +2553,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -2557,7 +2561,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>82</v>
       </c>
@@ -2572,7 +2576,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>84</v>
       </c>
@@ -2588,7 +2592,7 @@
         <v>7.270833333333333E-5</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>86</v>
       </c>
@@ -2604,7 +2608,7 @@
         <v>3.6354166666666664E-4</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>88</v>
       </c>
@@ -2617,7 +2621,7 @@
         <v>6.6081271010709486E-8</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>89</v>
       </c>
@@ -2636,28 +2640,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F251BC20-0382-41B6-B660-C0840633F309}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="2.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="2.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="1.73046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="2.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="1.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="2.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>0</v>
       </c>
@@ -2719,7 +2723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2732,7 +2736,7 @@
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
       <c r="F2" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>73</v>
@@ -2770,7 +2774,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2831,7 +2835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2888,7 +2892,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2951,7 +2955,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B7" s="33" t="s">
         <v>93</v>
       </c>
@@ -2965,7 +2969,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B8" s="33" t="s">
         <v>81</v>
       </c>
@@ -2979,7 +2983,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B9" s="33" t="s">
         <v>95</v>
       </c>
@@ -2991,7 +2995,7 @@
       </c>
       <c r="E9" s="34"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B10" s="33" t="s">
         <v>94</v>
       </c>
@@ -3005,7 +3009,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B11" s="33" t="s">
         <v>99</v>
       </c>
@@ -3019,7 +3023,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B12" s="33" t="s">
         <v>72</v>
       </c>
@@ -3033,7 +3037,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B13" s="33" t="s">
         <v>94</v>
       </c>
@@ -3047,7 +3051,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B14" s="33" t="s">
         <v>102</v>
       </c>
@@ -3061,7 +3065,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -3074,7 +3078,7 @@
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -3087,7 +3091,7 @@
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -3102,7 +3106,7 @@
       </c>
       <c r="E18" s="34"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -3115,7 +3119,7 @@
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -3126,7 +3130,504 @@
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551A3C37-8468-4773-97CF-B9DBA7CD1E4B}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="2.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>2</v>
+      </c>
+      <c r="O1">
+        <v>3</v>
+      </c>
+      <c r="P1">
+        <v>4</v>
+      </c>
+      <c r="Q1">
+        <v>5</v>
+      </c>
+      <c r="R1">
+        <v>6</v>
+      </c>
+      <c r="S1">
+        <v>7</v>
+      </c>
+      <c r="T1">
+        <v>8</v>
+      </c>
+      <c r="U1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="3">
+        <v>3</v>
+      </c>
+      <c r="R2" s="3">
+        <v>8</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="3">
+        <v>3</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>2</v>
+      </c>
+      <c r="R3" s="3">
+        <v>5</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="3">
+        <v>3</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="31"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>5</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="31"/>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>3</v>
+      </c>
+      <c r="R5" s="3">
+        <v>4</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B7" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B8" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="33"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B9" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B10" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B11" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B13" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B14" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="34">
+        <v>2</v>
+      </c>
+      <c r="E18" s="34"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>106</v>
       </c>

--- a/Display.xlsx
+++ b/Display.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uutzi\Documents\GitHub\ESP Playground\AirQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1E747A-1AD8-4700-9CBE-697E631D3C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AE9A14-05D7-432B-A956-4C215AE94167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2520" windowWidth="19200" windowHeight="10060" activeTab="3" xr2:uid="{640D9A9B-E986-4773-BCDE-A1F2849D844A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="1" activeTab="4" xr2:uid="{640D9A9B-E986-4773-BCDE-A1F2849D844A}"/>
   </bookViews>
   <sheets>
     <sheet name="Engineering Setup" sheetId="1" r:id="rId1"/>
     <sheet name="Two Page Setup" sheetId="2" r:id="rId2"/>
     <sheet name="Single Page Setup" sheetId="3" r:id="rId3"/>
     <sheet name="Simplified" sheetId="4" r:id="rId4"/>
+    <sheet name="Simple with Time" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="113">
   <si>
     <t>BME680</t>
   </si>
@@ -360,6 +361,21 @@
   </si>
   <si>
     <t>!</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -445,7 +461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -592,12 +608,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -633,6 +669,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3156,8 +3194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551A3C37-8468-4773-97CF-B9DBA7CD1E4B}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3647,4 +3685,405 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B58A5D-A54F-4201-ADAF-037457460FED}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="B1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="2.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <v>7</v>
+      </c>
+      <c r="T6">
+        <v>8</v>
+      </c>
+      <c r="U6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3</v>
+      </c>
+      <c r="L7" s="3">
+        <v>4</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="3">
+        <v>3</v>
+      </c>
+      <c r="R7" s="3">
+        <v>8</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="3">
+        <v>8</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="H8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>2</v>
+      </c>
+      <c r="R8" s="3">
+        <v>5</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="3">
+        <v>3</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="34">
+        <v>2</v>
+      </c>
+      <c r="N9" s="34">
+        <v>3</v>
+      </c>
+      <c r="O9" s="34">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>9</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6</v>
+      </c>
+      <c r="K10" s="3">
+        <v>4</v>
+      </c>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="3">
+        <v>2</v>
+      </c>
+      <c r="O10" s="3">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="T10" s="3">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>